--- a/RECS 2020 Codebook for Public File - v7.xlsx
+++ b/RECS 2020 Codebook for Public File - v7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e3026bca469c91ae/Documents/GH_PAI789/policy-data-insight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{61A163D2-086D-4866-A586-05D0C0A1ADA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8788FB0D-F28F-4405-A871-A4F2559E45EB}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{61A163D2-086D-4866-A586-05D0C0A1ADA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA6AD4E4-3248-4D28-911D-89A8747C7C83}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7213,11 +7213,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F801"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:D3"/>
+      <pane ySplit="2" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D264" sqref="D264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7256,7 +7257,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>465</v>
       </c>
@@ -7273,7 +7274,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>600</v>
       </c>
@@ -7290,7 +7291,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>602</v>
       </c>
@@ -7307,7 +7308,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>1398</v>
       </c>
@@ -7324,7 +7325,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>589</v>
       </c>
@@ -7341,7 +7342,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>591</v>
       </c>
@@ -7358,7 +7359,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>598</v>
       </c>
@@ -7375,7 +7376,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>596</v>
       </c>
@@ -7392,7 +7393,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>594</v>
       </c>
@@ -7409,7 +7410,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="38.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>603</v>
       </c>
@@ -7426,7 +7427,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="38.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>604</v>
       </c>
@@ -7443,7 +7444,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>2052</v>
       </c>
@@ -7460,7 +7461,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>2053</v>
       </c>
@@ -7477,7 +7478,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="93.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="93.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>2</v>
       </c>
@@ -7494,7 +7495,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
@@ -7511,7 +7512,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -7528,7 +7529,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
@@ -7545,7 +7546,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>10</v>
       </c>
@@ -7562,7 +7563,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
@@ -7579,7 +7580,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
@@ -7596,7 +7597,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
@@ -7613,7 +7614,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
@@ -7630,7 +7631,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>20</v>
       </c>
@@ -7647,7 +7648,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
@@ -7664,7 +7665,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>24</v>
       </c>
@@ -7681,7 +7682,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -7698,7 +7699,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
@@ -7715,7 +7716,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
@@ -7732,7 +7733,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
@@ -7749,7 +7750,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
@@ -7766,7 +7767,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>435</v>
       </c>
@@ -7783,7 +7784,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>436</v>
       </c>
@@ -7800,7 +7801,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="117.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="117.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>33</v>
       </c>
@@ -7817,7 +7818,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
@@ -7834,7 +7835,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
@@ -7851,7 +7852,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
@@ -7868,7 +7869,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>39</v>
       </c>
@@ -7885,7 +7886,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>41</v>
       </c>
@@ -7902,7 +7903,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>43</v>
       </c>
@@ -7919,7 +7920,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>45</v>
       </c>
@@ -7936,7 +7937,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>47</v>
       </c>
@@ -7953,7 +7954,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>49</v>
       </c>
@@ -7970,7 +7971,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>50</v>
       </c>
@@ -7987,7 +7988,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>52</v>
       </c>
@@ -8004,7 +8005,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>53</v>
       </c>
@@ -8021,7 +8022,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>54</v>
       </c>
@@ -8038,7 +8039,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>56</v>
       </c>
@@ -8055,7 +8056,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="104.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>57</v>
       </c>
@@ -8072,7 +8073,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>59</v>
       </c>
@@ -8089,7 +8090,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>61</v>
       </c>
@@ -8106,7 +8107,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="93.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>63</v>
       </c>
@@ -8123,7 +8124,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>65</v>
       </c>
@@ -8140,7 +8141,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>67</v>
       </c>
@@ -8157,7 +8158,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>69</v>
       </c>
@@ -8174,7 +8175,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>71</v>
       </c>
@@ -8191,7 +8192,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>73</v>
       </c>
@@ -8208,7 +8209,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>75</v>
       </c>
@@ -8225,7 +8226,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="92.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>76</v>
       </c>
@@ -8242,7 +8243,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>77</v>
       </c>
@@ -8259,7 +8260,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>78</v>
       </c>
@@ -8276,7 +8277,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>79</v>
       </c>
@@ -8293,7 +8294,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>80</v>
       </c>
@@ -8310,7 +8311,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>82</v>
       </c>
@@ -8327,7 +8328,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>84</v>
       </c>
@@ -8344,7 +8345,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>86</v>
       </c>
@@ -8361,7 +8362,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>88</v>
       </c>
@@ -8378,7 +8379,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>90</v>
       </c>
@@ -8395,7 +8396,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>92</v>
       </c>
@@ -8412,7 +8413,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>94</v>
       </c>
@@ -8429,7 +8430,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="81.599999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>96</v>
       </c>
@@ -8446,7 +8447,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>98</v>
       </c>
@@ -8463,7 +8464,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>100</v>
       </c>
@@ -8480,7 +8481,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>102</v>
       </c>
@@ -8497,7 +8498,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>104</v>
       </c>
@@ -8514,7 +8515,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>106</v>
       </c>
@@ -8531,7 +8532,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>108</v>
       </c>
@@ -8548,7 +8549,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>110</v>
       </c>
@@ -8565,7 +8566,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>112</v>
       </c>
@@ -8582,7 +8583,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>114</v>
       </c>
@@ -8599,7 +8600,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>115</v>
       </c>
@@ -8616,7 +8617,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>117</v>
       </c>
@@ -8633,7 +8634,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>437</v>
       </c>
@@ -8650,7 +8651,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>119</v>
       </c>
@@ -8667,7 +8668,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>121</v>
       </c>
@@ -8684,7 +8685,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>122</v>
       </c>
@@ -8701,7 +8702,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>124</v>
       </c>
@@ -8718,7 +8719,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>126</v>
       </c>
@@ -8735,7 +8736,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>127</v>
       </c>
@@ -8752,7 +8753,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>129</v>
       </c>
@@ -8769,7 +8770,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>131</v>
       </c>
@@ -8786,7 +8787,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>133</v>
       </c>
@@ -8803,7 +8804,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>438</v>
       </c>
@@ -8820,7 +8821,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>439</v>
       </c>
@@ -8837,7 +8838,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>440</v>
       </c>
@@ -8854,7 +8855,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>135</v>
       </c>
@@ -8871,7 +8872,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>136</v>
       </c>
@@ -8888,7 +8889,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>138</v>
       </c>
@@ -8905,7 +8906,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>140</v>
       </c>
@@ -8922,7 +8923,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>142</v>
       </c>
@@ -8939,7 +8940,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>143</v>
       </c>
@@ -8956,7 +8957,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>144</v>
       </c>
@@ -8973,7 +8974,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>146</v>
       </c>
@@ -8990,7 +8991,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>148</v>
       </c>
@@ -9007,7 +9008,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>150</v>
       </c>
@@ -9024,7 +9025,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>151</v>
       </c>
@@ -9041,7 +9042,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>153</v>
       </c>
@@ -9058,7 +9059,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>155</v>
       </c>
@@ -9075,7 +9076,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>157</v>
       </c>
@@ -9092,7 +9093,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>159</v>
       </c>
@@ -9109,7 +9110,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>161</v>
       </c>
@@ -9126,7 +9127,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>163</v>
       </c>
@@ -9143,7 +9144,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>165</v>
       </c>
@@ -9160,7 +9161,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>167</v>
       </c>
@@ -9177,7 +9178,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>169</v>
       </c>
@@ -9194,7 +9195,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>170</v>
       </c>
@@ -9211,7 +9212,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>171</v>
       </c>
@@ -9228,7 +9229,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>172</v>
       </c>
@@ -9245,7 +9246,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>173</v>
       </c>
@@ -9262,7 +9263,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>174</v>
       </c>
@@ -9279,7 +9280,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>175</v>
       </c>
@@ -9296,7 +9297,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>176</v>
       </c>
@@ -9313,7 +9314,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>177</v>
       </c>
@@ -9330,7 +9331,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>178</v>
       </c>
@@ -9347,7 +9348,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>179</v>
       </c>
@@ -9364,7 +9365,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>181</v>
       </c>
@@ -9381,7 +9382,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>183</v>
       </c>
@@ -9398,7 +9399,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>185</v>
       </c>
@@ -9415,7 +9416,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>186</v>
       </c>
@@ -9432,7 +9433,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>188</v>
       </c>
@@ -9449,7 +9450,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>190</v>
       </c>
@@ -9466,7 +9467,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>192</v>
       </c>
@@ -9483,7 +9484,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>194</v>
       </c>
@@ -9500,7 +9501,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>196</v>
       </c>
@@ -9517,7 +9518,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>198</v>
       </c>
@@ -9534,7 +9535,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>200</v>
       </c>
@@ -9551,7 +9552,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>202</v>
       </c>
@@ -9568,7 +9569,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>203</v>
       </c>
@@ -9585,7 +9586,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>205</v>
       </c>
@@ -9602,7 +9603,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>207</v>
       </c>
@@ -9619,7 +9620,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>209</v>
       </c>
@@ -9636,7 +9637,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>211</v>
       </c>
@@ -9653,7 +9654,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>213</v>
       </c>
@@ -9670,7 +9671,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>215</v>
       </c>
@@ -9687,7 +9688,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>217</v>
       </c>
@@ -9704,7 +9705,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>219</v>
       </c>
@@ -9721,7 +9722,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>221</v>
       </c>
@@ -9738,7 +9739,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>223</v>
       </c>
@@ -9755,7 +9756,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>225</v>
       </c>
@@ -9772,7 +9773,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>227</v>
       </c>
@@ -9789,7 +9790,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>229</v>
       </c>
@@ -9806,7 +9807,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>231</v>
       </c>
@@ -9823,7 +9824,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>233</v>
       </c>
@@ -9840,7 +9841,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>235</v>
       </c>
@@ -9857,7 +9858,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>237</v>
       </c>
@@ -9874,7 +9875,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>239</v>
       </c>
@@ -9891,7 +9892,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>241</v>
       </c>
@@ -9908,7 +9909,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>441</v>
       </c>
@@ -9925,7 +9926,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>242</v>
       </c>
@@ -9942,7 +9943,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="158.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="158.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>244</v>
       </c>
@@ -9959,7 +9960,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>246</v>
       </c>
@@ -9976,7 +9977,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
         <v>248</v>
       </c>
@@ -9993,7 +9994,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>250</v>
       </c>
@@ -10010,7 +10011,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>252</v>
       </c>
@@ -10027,7 +10028,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>442</v>
       </c>
@@ -10044,7 +10045,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="104.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="104.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>254</v>
       </c>
@@ -10061,7 +10062,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="89.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>256</v>
       </c>
@@ -10078,7 +10079,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
         <v>257</v>
       </c>
@@ -10095,7 +10096,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>259</v>
       </c>
@@ -10112,7 +10113,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>261</v>
       </c>
@@ -10129,7 +10130,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>263</v>
       </c>
@@ -10146,7 +10147,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>265</v>
       </c>
@@ -10163,7 +10164,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>267</v>
       </c>
@@ -10180,7 +10181,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>269</v>
       </c>
@@ -10197,7 +10198,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>271</v>
       </c>
@@ -10214,7 +10215,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>273</v>
       </c>
@@ -10231,7 +10232,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>443</v>
       </c>
@@ -10248,7 +10249,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>444</v>
       </c>
@@ -10265,7 +10266,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>445</v>
       </c>
@@ -10282,7 +10283,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>446</v>
       </c>
@@ -10299,7 +10300,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>447</v>
       </c>
@@ -10316,7 +10317,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>274</v>
       </c>
@@ -10333,7 +10334,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>276</v>
       </c>
@@ -10350,7 +10351,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" ht="91.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>2048</v>
       </c>
@@ -10367,7 +10368,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>278</v>
       </c>
@@ -10384,7 +10385,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" ht="104.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>2049</v>
       </c>
@@ -10401,7 +10402,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>280</v>
       </c>
@@ -10418,7 +10419,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>282</v>
       </c>
@@ -10435,7 +10436,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>284</v>
       </c>
@@ -10452,7 +10453,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>286</v>
       </c>
@@ -10469,7 +10470,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>288</v>
       </c>
@@ -10486,7 +10487,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>290</v>
       </c>
@@ -10503,7 +10504,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>292</v>
       </c>
@@ -10520,7 +10521,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>294</v>
       </c>
@@ -10537,7 +10538,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>296</v>
       </c>
@@ -10554,7 +10555,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>297</v>
       </c>
@@ -10571,7 +10572,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>299</v>
       </c>
@@ -10588,7 +10589,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>301</v>
       </c>
@@ -10605,7 +10606,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>303</v>
       </c>
@@ -10622,7 +10623,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" ht="104.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>305</v>
       </c>
@@ -10639,7 +10640,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>448</v>
       </c>
@@ -10656,7 +10657,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>306</v>
       </c>
@@ -10673,7 +10674,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>308</v>
       </c>
@@ -10690,7 +10691,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>310</v>
       </c>
@@ -10707,7 +10708,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>311</v>
       </c>
@@ -10724,7 +10725,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>312</v>
       </c>
@@ -10741,7 +10742,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>313</v>
       </c>
@@ -10758,7 +10759,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>315</v>
       </c>
@@ -10775,7 +10776,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>316</v>
       </c>
@@ -10792,7 +10793,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>317</v>
       </c>
@@ -10809,7 +10810,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
         <v>318</v>
       </c>
@@ -10826,7 +10827,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
         <v>320</v>
       </c>
@@ -10843,7 +10844,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
         <v>322</v>
       </c>
@@ -10860,7 +10861,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>324</v>
       </c>
@@ -10877,7 +10878,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>326</v>
       </c>
@@ -10894,7 +10895,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" ht="108" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>328</v>
       </c>
@@ -10911,7 +10912,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>330</v>
       </c>
@@ -10928,7 +10929,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>331</v>
       </c>
@@ -10945,7 +10946,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>449</v>
       </c>
@@ -10962,7 +10963,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>450</v>
       </c>
@@ -10979,7 +10980,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
         <v>451</v>
       </c>
@@ -10996,7 +10997,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>452</v>
       </c>
@@ -11013,7 +11014,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>453</v>
       </c>
@@ -11030,7 +11031,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>454</v>
       </c>
@@ -11047,7 +11048,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
         <v>333</v>
       </c>
@@ -11064,7 +11065,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
         <v>335</v>
       </c>
@@ -11081,7 +11082,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
         <v>337</v>
       </c>
@@ -11098,7 +11099,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>339</v>
       </c>
@@ -11115,7 +11116,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
         <v>341</v>
       </c>
@@ -11132,7 +11133,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
         <v>343</v>
       </c>
@@ -11149,7 +11150,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>345</v>
       </c>
@@ -11166,7 +11167,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>347</v>
       </c>
@@ -11183,7 +11184,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>349</v>
       </c>
@@ -11200,7 +11201,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
         <v>351</v>
       </c>
@@ -11217,7 +11218,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
         <v>353</v>
       </c>
@@ -11234,7 +11235,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
         <v>355</v>
       </c>
@@ -11251,7 +11252,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
         <v>357</v>
       </c>
@@ -11268,7 +11269,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
         <v>359</v>
       </c>
@@ -11285,7 +11286,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>361</v>
       </c>
@@ -11302,7 +11303,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>363</v>
       </c>
@@ -11319,7 +11320,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>365</v>
       </c>
@@ -11336,7 +11337,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
         <v>367</v>
       </c>
@@ -11353,7 +11354,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>369</v>
       </c>
@@ -11370,7 +11371,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" ht="80.400000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
         <v>371</v>
       </c>
@@ -11387,7 +11388,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>373</v>
       </c>
@@ -11404,7 +11405,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>374</v>
       </c>
@@ -11421,7 +11422,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
         <v>455</v>
       </c>
@@ -11438,7 +11439,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
         <v>456</v>
       </c>
@@ -11455,7 +11456,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
         <v>457</v>
       </c>
@@ -11472,7 +11473,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
         <v>458</v>
       </c>
@@ -11489,7 +11490,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
         <v>459</v>
       </c>
@@ -11506,7 +11507,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
         <v>460</v>
       </c>
@@ -11523,7 +11524,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
         <v>461</v>
       </c>
@@ -11540,7 +11541,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>462</v>
       </c>
@@ -11557,7 +11558,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>463</v>
       </c>
@@ -11574,7 +11575,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>464</v>
       </c>
@@ -11591,7 +11592,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
         <v>1179</v>
       </c>
@@ -11608,7 +11609,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
         <v>378</v>
       </c>
@@ -11625,7 +11626,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
         <v>380</v>
       </c>
@@ -11642,7 +11643,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
         <v>381</v>
       </c>
@@ -11659,7 +11660,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" ht="77.400000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
         <v>383</v>
       </c>
@@ -11676,7 +11677,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
         <v>384</v>
       </c>
@@ -11710,7 +11711,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
         <v>386</v>
       </c>
@@ -11727,7 +11728,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
         <v>387</v>
       </c>
@@ -11744,7 +11745,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
         <v>388</v>
       </c>
@@ -11761,7 +11762,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>390</v>
       </c>
@@ -11778,7 +11779,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>392</v>
       </c>
@@ -11795,7 +11796,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" ht="230.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>393</v>
       </c>
@@ -11812,7 +11813,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
         <v>395</v>
       </c>
@@ -11829,7 +11830,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>397</v>
       </c>
@@ -11846,7 +11847,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
         <v>399</v>
       </c>
@@ -11863,7 +11864,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
         <v>400</v>
       </c>
@@ -11880,7 +11881,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
         <v>401</v>
       </c>
@@ -11897,7 +11898,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
         <v>403</v>
       </c>
@@ -11914,7 +11915,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
         <v>405</v>
       </c>
@@ -11931,7 +11932,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
         <v>407</v>
       </c>
@@ -11948,7 +11949,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
         <v>409</v>
       </c>
@@ -11965,7 +11966,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>411</v>
       </c>
@@ -11982,7 +11983,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>413</v>
       </c>
@@ -11999,7 +12000,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>415</v>
       </c>
@@ -12016,7 +12017,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>416</v>
       </c>
@@ -12033,7 +12034,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>417</v>
       </c>
@@ -12050,7 +12051,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
         <v>418</v>
       </c>
@@ -12067,7 +12068,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
         <v>419</v>
       </c>
@@ -12084,7 +12085,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
         <v>421</v>
       </c>
@@ -12101,7 +12102,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
         <v>423</v>
       </c>
@@ -12118,7 +12119,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
         <v>425</v>
       </c>
@@ -12135,7 +12136,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
         <v>427</v>
       </c>
@@ -12152,7 +12153,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
         <v>429</v>
       </c>
@@ -12169,7 +12170,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
         <v>431</v>
       </c>
@@ -12186,7 +12187,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
         <v>433</v>
       </c>
@@ -12203,7 +12204,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
         <v>1439</v>
       </c>
@@ -12220,7 +12221,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
         <v>1432</v>
       </c>
@@ -12237,7 +12238,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
         <v>1433</v>
       </c>
@@ -12254,7 +12255,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
         <v>1434</v>
       </c>
@@ -12271,7 +12272,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
         <v>1435</v>
       </c>
@@ -12288,7 +12289,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
         <v>1436</v>
       </c>
@@ -12305,7 +12306,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
         <v>1437</v>
       </c>
@@ -12322,7 +12323,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
         <v>1438</v>
       </c>
@@ -12339,7 +12340,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
         <v>606</v>
       </c>
@@ -12356,7 +12357,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
         <v>608</v>
       </c>
@@ -12373,7 +12374,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
         <v>610</v>
       </c>
@@ -12390,7 +12391,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
         <v>612</v>
       </c>
@@ -12407,7 +12408,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="6" t="s">
         <v>614</v>
       </c>
@@ -12424,7 +12425,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="6" t="s">
         <v>616</v>
       </c>
@@ -12441,7 +12442,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
         <v>618</v>
       </c>
@@ -12458,7 +12459,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
         <v>620</v>
       </c>
@@ -12475,7 +12476,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
         <v>622</v>
       </c>
@@ -12492,7 +12493,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
         <v>624</v>
       </c>
@@ -12509,7 +12510,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
         <v>626</v>
       </c>
@@ -12526,7 +12527,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
         <v>628</v>
       </c>
@@ -12543,7 +12544,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
         <v>630</v>
       </c>
@@ -12560,7 +12561,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
         <v>632</v>
       </c>
@@ -12577,7 +12578,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
         <v>634</v>
       </c>
@@ -12594,7 +12595,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="6" t="s">
         <v>636</v>
       </c>
@@ -12611,7 +12612,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
         <v>638</v>
       </c>
@@ -12628,7 +12629,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
         <v>640</v>
       </c>
@@ -12645,7 +12646,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
         <v>642</v>
       </c>
@@ -12662,7 +12663,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
         <v>644</v>
       </c>
@@ -12679,7 +12680,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
         <v>646</v>
       </c>
@@ -12696,7 +12697,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
         <v>648</v>
       </c>
@@ -12713,7 +12714,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
         <v>650</v>
       </c>
@@ -12730,7 +12731,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
         <v>652</v>
       </c>
@@ -12747,7 +12748,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
         <v>654</v>
       </c>
@@ -12764,7 +12765,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
         <v>656</v>
       </c>
@@ -12781,7 +12782,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="6" t="s">
         <v>658</v>
       </c>
@@ -12798,7 +12799,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="6" t="s">
         <v>660</v>
       </c>
@@ -12815,7 +12816,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="6" t="s">
         <v>662</v>
       </c>
@@ -12832,7 +12833,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
         <v>664</v>
       </c>
@@ -12849,7 +12850,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="6" t="s">
         <v>666</v>
       </c>
@@ -12866,7 +12867,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
         <v>668</v>
       </c>
@@ -12883,7 +12884,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="6" t="s">
         <v>670</v>
       </c>
@@ -12900,7 +12901,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="6" t="s">
         <v>672</v>
       </c>
@@ -12917,7 +12918,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="6" t="s">
         <v>674</v>
       </c>
@@ -12934,7 +12935,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="6" t="s">
         <v>676</v>
       </c>
@@ -12951,7 +12952,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="6" t="s">
         <v>678</v>
       </c>
@@ -12968,7 +12969,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="6" t="s">
         <v>680</v>
       </c>
@@ -12985,7 +12986,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="6" t="s">
         <v>682</v>
       </c>
@@ -13002,7 +13003,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="6" t="s">
         <v>684</v>
       </c>
@@ -13019,7 +13020,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="6" t="s">
         <v>686</v>
       </c>
@@ -13036,7 +13037,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="6" t="s">
         <v>688</v>
       </c>
@@ -13053,7 +13054,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="6" t="s">
         <v>690</v>
       </c>
@@ -13070,7 +13071,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="6" t="s">
         <v>692</v>
       </c>
@@ -13087,7 +13088,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="6" t="s">
         <v>694</v>
       </c>
@@ -13104,7 +13105,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="6" t="s">
         <v>696</v>
       </c>
@@ -13121,7 +13122,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="6" t="s">
         <v>698</v>
       </c>
@@ -13138,7 +13139,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="6" t="s">
         <v>700</v>
       </c>
@@ -13155,7 +13156,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="6" t="s">
         <v>702</v>
       </c>
@@ -13172,7 +13173,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="6" t="s">
         <v>704</v>
       </c>
@@ -13189,7 +13190,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="6" t="s">
         <v>706</v>
       </c>
@@ -13206,7 +13207,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="6" t="s">
         <v>708</v>
       </c>
@@ -13223,7 +13224,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="6" t="s">
         <v>710</v>
       </c>
@@ -13240,7 +13241,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="6" t="s">
         <v>712</v>
       </c>
@@ -13257,7 +13258,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="6" t="s">
         <v>714</v>
       </c>
@@ -13274,7 +13275,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="6" t="s">
         <v>716</v>
       </c>
@@ -13291,7 +13292,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="6" t="s">
         <v>718</v>
       </c>
@@ -13308,7 +13309,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="6" t="s">
         <v>720</v>
       </c>
@@ -13325,7 +13326,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="6" t="s">
         <v>722</v>
       </c>
@@ -13342,7 +13343,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="6" t="s">
         <v>724</v>
       </c>
@@ -13359,7 +13360,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="6" t="s">
         <v>726</v>
       </c>
@@ -13376,7 +13377,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="6" t="s">
         <v>728</v>
       </c>
@@ -13393,7 +13394,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="6" t="s">
         <v>730</v>
       </c>
@@ -13410,7 +13411,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="6" t="s">
         <v>732</v>
       </c>
@@ -13427,7 +13428,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="6" t="s">
         <v>734</v>
       </c>
@@ -13444,7 +13445,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="6" t="s">
         <v>736</v>
       </c>
@@ -13461,7 +13462,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="6" t="s">
         <v>738</v>
       </c>
@@ -13478,7 +13479,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="6" t="s">
         <v>740</v>
       </c>
@@ -13495,7 +13496,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="6" t="s">
         <v>742</v>
       </c>
@@ -13512,7 +13513,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="6" t="s">
         <v>744</v>
       </c>
@@ -13529,7 +13530,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="6" t="s">
         <v>746</v>
       </c>
@@ -13546,7 +13547,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="6" t="s">
         <v>748</v>
       </c>
@@ -13563,7 +13564,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="6" t="s">
         <v>750</v>
       </c>
@@ -13580,7 +13581,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="6" t="s">
         <v>752</v>
       </c>
@@ -13597,7 +13598,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="6" t="s">
         <v>754</v>
       </c>
@@ -13614,7 +13615,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="6" t="s">
         <v>756</v>
       </c>
@@ -13631,7 +13632,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="6" t="s">
         <v>758</v>
       </c>
@@ -13648,7 +13649,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="6" t="s">
         <v>760</v>
       </c>
@@ -13665,7 +13666,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="6" t="s">
         <v>762</v>
       </c>
@@ -13682,7 +13683,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="6" t="s">
         <v>764</v>
       </c>
@@ -13699,7 +13700,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="6" t="s">
         <v>766</v>
       </c>
@@ -13716,7 +13717,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="6" t="s">
         <v>768</v>
       </c>
@@ -13733,7 +13734,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="6" t="s">
         <v>770</v>
       </c>
@@ -13750,7 +13751,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="6" t="s">
         <v>772</v>
       </c>
@@ -13767,7 +13768,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="6" t="s">
         <v>774</v>
       </c>
@@ -13784,7 +13785,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="6" t="s">
         <v>776</v>
       </c>
@@ -13801,7 +13802,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="6" t="s">
         <v>778</v>
       </c>
@@ -13818,7 +13819,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="6" t="s">
         <v>780</v>
       </c>
@@ -13835,7 +13836,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="6" t="s">
         <v>782</v>
       </c>
@@ -13852,7 +13853,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="6" t="s">
         <v>784</v>
       </c>
@@ -13869,7 +13870,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="6" t="s">
         <v>786</v>
       </c>
@@ -13886,7 +13887,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="6" t="s">
         <v>788</v>
       </c>
@@ -13903,7 +13904,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="6" t="s">
         <v>790</v>
       </c>
@@ -13920,7 +13921,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="6" t="s">
         <v>792</v>
       </c>
@@ -13937,7 +13938,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="6" t="s">
         <v>794</v>
       </c>
@@ -13954,7 +13955,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="6" t="s">
         <v>796</v>
       </c>
@@ -13971,7 +13972,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="6" t="s">
         <v>798</v>
       </c>
@@ -13988,7 +13989,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="6" t="s">
         <v>800</v>
       </c>
@@ -14005,7 +14006,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="6" t="s">
         <v>802</v>
       </c>
@@ -14022,7 +14023,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="6" t="s">
         <v>804</v>
       </c>
@@ -14039,7 +14040,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="6" t="s">
         <v>806</v>
       </c>
@@ -14056,7 +14057,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="6" t="s">
         <v>808</v>
       </c>
@@ -14073,7 +14074,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="6" t="s">
         <v>810</v>
       </c>
@@ -14090,7 +14091,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="6" t="s">
         <v>812</v>
       </c>
@@ -14107,7 +14108,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="6" t="s">
         <v>814</v>
       </c>
@@ -14124,7 +14125,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="6" t="s">
         <v>816</v>
       </c>
@@ -14141,7 +14142,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="6" t="s">
         <v>818</v>
       </c>
@@ -14158,7 +14159,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="6" t="s">
         <v>820</v>
       </c>
@@ -14175,7 +14176,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="6" t="s">
         <v>822</v>
       </c>
@@ -14192,7 +14193,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="6" t="s">
         <v>824</v>
       </c>
@@ -14209,7 +14210,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="6" t="s">
         <v>826</v>
       </c>
@@ -14226,7 +14227,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
         <v>828</v>
       </c>
@@ -14243,7 +14244,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
         <v>830</v>
       </c>
@@ -14260,7 +14261,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
         <v>832</v>
       </c>
@@ -14277,7 +14278,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="6" t="s">
         <v>834</v>
       </c>
@@ -14294,7 +14295,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
         <v>836</v>
       </c>
@@ -14311,7 +14312,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
         <v>838</v>
       </c>
@@ -14328,7 +14329,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
         <v>840</v>
       </c>
@@ -14345,7 +14346,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
         <v>842</v>
       </c>
@@ -14362,7 +14363,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="6" t="s">
         <v>844</v>
       </c>
@@ -14379,7 +14380,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="6" t="s">
         <v>846</v>
       </c>
@@ -14396,7 +14397,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="6" t="s">
         <v>848</v>
       </c>
@@ -14413,7 +14414,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="6" t="s">
         <v>850</v>
       </c>
@@ -14430,7 +14431,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="6" t="s">
         <v>852</v>
       </c>
@@ -14447,7 +14448,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="6" t="s">
         <v>854</v>
       </c>
@@ -14464,7 +14465,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="427" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="6" t="s">
         <v>856</v>
       </c>
@@ -14481,7 +14482,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="6" t="s">
         <v>858</v>
       </c>
@@ -14498,7 +14499,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="429" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="6" t="s">
         <v>860</v>
       </c>
@@ -14515,7 +14516,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="6" t="s">
         <v>862</v>
       </c>
@@ -14532,7 +14533,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="431" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="6" t="s">
         <v>864</v>
       </c>
@@ -14549,7 +14550,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="432" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="6" t="s">
         <v>866</v>
       </c>
@@ -14566,7 +14567,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="433" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="6" t="s">
         <v>868</v>
       </c>
@@ -14583,7 +14584,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="434" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="6" t="s">
         <v>870</v>
       </c>
@@ -14600,7 +14601,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="6" t="s">
         <v>872</v>
       </c>
@@ -14617,7 +14618,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="6" t="s">
         <v>874</v>
       </c>
@@ -14634,7 +14635,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="437" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="6" t="s">
         <v>876</v>
       </c>
@@ -14651,7 +14652,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="6" t="s">
         <v>878</v>
       </c>
@@ -14668,7 +14669,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="6" t="s">
         <v>880</v>
       </c>
@@ -14685,7 +14686,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="6" t="s">
         <v>882</v>
       </c>
@@ -14702,7 +14703,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="6" t="s">
         <v>884</v>
       </c>
@@ -14719,7 +14720,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="6" t="s">
         <v>886</v>
       </c>
@@ -14736,7 +14737,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="443" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="6" t="s">
         <v>888</v>
       </c>
@@ -14753,7 +14754,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="444" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="6" t="s">
         <v>890</v>
       </c>
@@ -14770,7 +14771,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="445" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="6" t="s">
         <v>892</v>
       </c>
@@ -14787,7 +14788,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="446" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="6" t="s">
         <v>894</v>
       </c>
@@ -14804,7 +14805,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="447" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="6" t="s">
         <v>896</v>
       </c>
@@ -14821,7 +14822,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="6" t="s">
         <v>898</v>
       </c>
@@ -14838,7 +14839,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="6" t="s">
         <v>900</v>
       </c>
@@ -14855,7 +14856,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="450" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="6" t="s">
         <v>902</v>
       </c>
@@ -14872,7 +14873,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="451" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="6" t="s">
         <v>904</v>
       </c>
@@ -14889,7 +14890,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="452" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="6" t="s">
         <v>906</v>
       </c>
@@ -14906,7 +14907,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="6" t="s">
         <v>908</v>
       </c>
@@ -14923,7 +14924,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="454" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="6" t="s">
         <v>910</v>
       </c>
@@ -14940,7 +14941,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="455" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="6" t="s">
         <v>912</v>
       </c>
@@ -14957,7 +14958,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="456" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="6" t="s">
         <v>914</v>
       </c>
@@ -14974,7 +14975,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="457" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="6" t="s">
         <v>916</v>
       </c>
@@ -14991,7 +14992,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="6" t="s">
         <v>918</v>
       </c>
@@ -15008,7 +15009,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="6" t="s">
         <v>920</v>
       </c>
@@ -15025,7 +15026,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="6" t="s">
         <v>922</v>
       </c>
@@ -15042,7 +15043,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="6" t="s">
         <v>924</v>
       </c>
@@ -15059,7 +15060,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="462" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="6" t="s">
         <v>926</v>
       </c>
@@ -15076,7 +15077,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="463" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="6" t="s">
         <v>928</v>
       </c>
@@ -15093,7 +15094,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="464" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="6" t="s">
         <v>930</v>
       </c>
@@ -15110,7 +15111,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="465" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="6" t="s">
         <v>932</v>
       </c>
@@ -15127,7 +15128,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="6" t="s">
         <v>934</v>
       </c>
@@ -15144,7 +15145,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="467" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="6" t="s">
         <v>936</v>
       </c>
@@ -15161,7 +15162,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="468" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="6" t="s">
         <v>938</v>
       </c>
@@ -15178,7 +15179,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="469" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="6" t="s">
         <v>940</v>
       </c>
@@ -15195,7 +15196,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="470" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="6" t="s">
         <v>942</v>
       </c>
@@ -15212,7 +15213,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="471" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="6" t="s">
         <v>944</v>
       </c>
@@ -15229,7 +15230,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="472" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="6" t="s">
         <v>946</v>
       </c>
@@ -15246,7 +15247,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="473" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="6" t="s">
         <v>948</v>
       </c>
@@ -15263,7 +15264,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="474" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="6" t="s">
         <v>950</v>
       </c>
@@ -15280,7 +15281,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="475" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="6" t="s">
         <v>952</v>
       </c>
@@ -15297,7 +15298,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="476" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="6" t="s">
         <v>1450</v>
       </c>
@@ -15314,7 +15315,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="477" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="6" t="s">
         <v>1451</v>
       </c>
@@ -15331,7 +15332,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="478" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="6" t="s">
         <v>1452</v>
       </c>
@@ -15348,7 +15349,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="479" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="6" t="s">
         <v>1453</v>
       </c>
@@ -15365,7 +15366,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="480" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="6" t="s">
         <v>1454</v>
       </c>
@@ -15382,7 +15383,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="481" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="6" t="s">
         <v>954</v>
       </c>
@@ -15399,7 +15400,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="482" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="6" t="s">
         <v>956</v>
       </c>
@@ -15416,7 +15417,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="483" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="6" t="s">
         <v>958</v>
       </c>
@@ -15433,7 +15434,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="484" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="6" t="s">
         <v>960</v>
       </c>
@@ -15450,7 +15451,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="485" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="6" t="s">
         <v>962</v>
       </c>
@@ -15467,7 +15468,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="486" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="6" t="s">
         <v>964</v>
       </c>
@@ -15484,7 +15485,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="487" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="6" t="s">
         <v>966</v>
       </c>
@@ -15501,7 +15502,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="488" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="6" t="s">
         <v>968</v>
       </c>
@@ -15518,7 +15519,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="489" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="6" t="s">
         <v>970</v>
       </c>
@@ -15535,7 +15536,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="490" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="6" t="s">
         <v>972</v>
       </c>
@@ -15552,7 +15553,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="491" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="6" t="s">
         <v>974</v>
       </c>
@@ -15569,7 +15570,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="492" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="6" t="s">
         <v>976</v>
       </c>
@@ -15586,7 +15587,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="493" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="6" t="s">
         <v>978</v>
       </c>
@@ -15603,7 +15604,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="494" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="6" t="s">
         <v>980</v>
       </c>
@@ -15620,7 +15621,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="495" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="6" t="s">
         <v>982</v>
       </c>
@@ -15637,7 +15638,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="496" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="6" t="s">
         <v>984</v>
       </c>
@@ -15654,7 +15655,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="497" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="6" t="s">
         <v>986</v>
       </c>
@@ -15671,7 +15672,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="498" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="6" t="s">
         <v>988</v>
       </c>
@@ -15688,7 +15689,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="499" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="6" t="s">
         <v>990</v>
       </c>
@@ -15705,7 +15706,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="500" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="6" t="s">
         <v>992</v>
       </c>
@@ -15722,7 +15723,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="501" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="6" t="s">
         <v>994</v>
       </c>
@@ -15739,7 +15740,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="502" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="6" t="s">
         <v>996</v>
       </c>
@@ -15756,7 +15757,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="503" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="6" t="s">
         <v>998</v>
       </c>
@@ -15773,7 +15774,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="504" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="6" t="s">
         <v>1000</v>
       </c>
@@ -15790,7 +15791,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="505" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="6" t="s">
         <v>1002</v>
       </c>
@@ -15807,7 +15808,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="506" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="6" t="s">
         <v>1004</v>
       </c>
@@ -15824,7 +15825,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="507" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="6" t="s">
         <v>1006</v>
       </c>
@@ -15841,7 +15842,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="508" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="6" t="s">
         <v>1008</v>
       </c>
@@ -15858,7 +15859,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="509" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="6" t="s">
         <v>1010</v>
       </c>
@@ -15875,7 +15876,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="510" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="6" t="s">
         <v>1012</v>
       </c>
@@ -15892,7 +15893,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="511" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="6" t="s">
         <v>1014</v>
       </c>
@@ -15909,7 +15910,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="512" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="6" t="s">
         <v>1016</v>
       </c>
@@ -15926,7 +15927,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="513" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="6" t="s">
         <v>1018</v>
       </c>
@@ -15943,7 +15944,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="514" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="6" t="s">
         <v>1020</v>
       </c>
@@ -15960,7 +15961,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="515" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="6" t="s">
         <v>1022</v>
       </c>
@@ -15977,7 +15978,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="516" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" s="6" t="s">
         <v>1024</v>
       </c>
@@ -15994,7 +15995,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="517" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="6" t="s">
         <v>1026</v>
       </c>
@@ -16011,7 +16012,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="518" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="6" t="s">
         <v>1028</v>
       </c>
@@ -16028,7 +16029,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="519" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="6" t="s">
         <v>1030</v>
       </c>
@@ -16045,7 +16046,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="520" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="6" t="s">
         <v>1032</v>
       </c>
@@ -16062,7 +16063,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="521" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="6" t="s">
         <v>1034</v>
       </c>
@@ -16079,7 +16080,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="522" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" s="6" t="s">
         <v>1036</v>
       </c>
@@ -16096,7 +16097,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="523" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" s="6" t="s">
         <v>1038</v>
       </c>
@@ -16113,7 +16114,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="524" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" s="6" t="s">
         <v>1040</v>
       </c>
@@ -16130,7 +16131,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="525" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="6" t="s">
         <v>1042</v>
       </c>
@@ -16147,7 +16148,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="526" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" s="6" t="s">
         <v>1044</v>
       </c>
@@ -16164,7 +16165,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="527" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="6" t="s">
         <v>1046</v>
       </c>
@@ -16181,7 +16182,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="528" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="6" t="s">
         <v>1048</v>
       </c>
@@ -16198,7 +16199,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="529" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" s="6" t="s">
         <v>1050</v>
       </c>
@@ -16215,7 +16216,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="530" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="6" t="s">
         <v>1052</v>
       </c>
@@ -16232,7 +16233,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="531" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" s="6" t="s">
         <v>1054</v>
       </c>
@@ -16249,7 +16250,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="532" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="6" t="s">
         <v>1056</v>
       </c>
@@ -16266,7 +16267,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="533" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" s="6" t="s">
         <v>1058</v>
       </c>
@@ -16283,7 +16284,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="534" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" s="6" t="s">
         <v>1060</v>
       </c>
@@ -16300,7 +16301,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="535" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" s="6" t="s">
         <v>1062</v>
       </c>
@@ -16317,7 +16318,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="536" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="6" t="s">
         <v>1064</v>
       </c>
@@ -16334,7 +16335,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="537" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="6" t="s">
         <v>1066</v>
       </c>
@@ -16351,7 +16352,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="538" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="6" t="s">
         <v>1068</v>
       </c>
@@ -16368,7 +16369,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="539" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" s="6" t="s">
         <v>1070</v>
       </c>
@@ -16385,7 +16386,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="540" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="6" t="s">
         <v>1072</v>
       </c>
@@ -16402,7 +16403,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="541" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" s="6" t="s">
         <v>1074</v>
       </c>
@@ -16419,7 +16420,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="542" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="6" t="s">
         <v>1076</v>
       </c>
@@ -16436,7 +16437,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="543" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" s="6" t="s">
         <v>1078</v>
       </c>
@@ -16453,7 +16454,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="544" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" s="6" t="s">
         <v>1080</v>
       </c>
@@ -16470,7 +16471,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="545" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="6" t="s">
         <v>1082</v>
       </c>
@@ -16487,7 +16488,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="546" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="6" t="s">
         <v>1084</v>
       </c>
@@ -16504,7 +16505,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="6" t="s">
         <v>1086</v>
       </c>
@@ -16521,7 +16522,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="548" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="6" t="s">
         <v>1088</v>
       </c>
@@ -16538,7 +16539,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="549" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="6" t="s">
         <v>1090</v>
       </c>
@@ -16555,7 +16556,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="550" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="6" t="s">
         <v>1177</v>
       </c>
@@ -16572,7 +16573,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="551" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="6" t="s">
         <v>2050</v>
       </c>
@@ -16589,7 +16590,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="552" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="6" t="s">
         <v>2051</v>
       </c>
@@ -16606,7 +16607,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="6" t="s">
         <v>467</v>
       </c>
@@ -16623,7 +16624,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" s="6" t="s">
         <v>469</v>
       </c>
@@ -16640,7 +16641,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" s="6" t="s">
         <v>471</v>
       </c>
@@ -16657,7 +16658,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" s="6" t="s">
         <v>473</v>
       </c>
@@ -16674,7 +16675,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" s="6" t="s">
         <v>475</v>
       </c>
@@ -16691,7 +16692,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" s="6" t="s">
         <v>477</v>
       </c>
@@ -16708,7 +16709,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" s="6" t="s">
         <v>479</v>
       </c>
@@ -16725,7 +16726,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" s="6" t="s">
         <v>481</v>
       </c>
@@ -16742,7 +16743,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" s="6" t="s">
         <v>483</v>
       </c>
@@ -16759,7 +16760,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" s="6" t="s">
         <v>485</v>
       </c>
@@ -16776,7 +16777,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" s="6" t="s">
         <v>487</v>
       </c>
@@ -16793,7 +16794,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" s="6" t="s">
         <v>489</v>
       </c>
@@ -16810,7 +16811,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" s="6" t="s">
         <v>491</v>
       </c>
@@ -16827,7 +16828,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" s="6" t="s">
         <v>493</v>
       </c>
@@ -16844,7 +16845,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" s="6" t="s">
         <v>495</v>
       </c>
@@ -16861,7 +16862,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" s="6" t="s">
         <v>497</v>
       </c>
@@ -16878,7 +16879,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" s="6" t="s">
         <v>499</v>
       </c>
@@ -16895,7 +16896,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" s="6" t="s">
         <v>501</v>
       </c>
@@ -16912,7 +16913,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" s="6" t="s">
         <v>503</v>
       </c>
@@ -16929,7 +16930,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" s="6" t="s">
         <v>505</v>
       </c>
@@ -16946,7 +16947,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" s="6" t="s">
         <v>507</v>
       </c>
@@ -16963,7 +16964,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" s="6" t="s">
         <v>509</v>
       </c>
@@ -16980,7 +16981,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" s="6" t="s">
         <v>511</v>
       </c>
@@ -16997,7 +16998,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" s="6" t="s">
         <v>513</v>
       </c>
@@ -17014,7 +17015,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" s="6" t="s">
         <v>515</v>
       </c>
@@ -17031,7 +17032,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" s="6" t="s">
         <v>517</v>
       </c>
@@ -17048,7 +17049,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" s="6" t="s">
         <v>519</v>
       </c>
@@ -17065,7 +17066,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" s="6" t="s">
         <v>521</v>
       </c>
@@ -17082,7 +17083,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" s="6" t="s">
         <v>523</v>
       </c>
@@ -17099,7 +17100,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" s="6" t="s">
         <v>525</v>
       </c>
@@ -17116,7 +17117,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" s="6" t="s">
         <v>527</v>
       </c>
@@ -17133,7 +17134,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" s="6" t="s">
         <v>529</v>
       </c>
@@ -17150,7 +17151,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" s="6" t="s">
         <v>531</v>
       </c>
@@ -17167,7 +17168,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" s="6" t="s">
         <v>533</v>
       </c>
@@ -17184,7 +17185,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" s="6" t="s">
         <v>535</v>
       </c>
@@ -17201,7 +17202,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" s="6" t="s">
         <v>537</v>
       </c>
@@ -17218,7 +17219,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" s="6" t="s">
         <v>539</v>
       </c>
@@ -17235,7 +17236,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" s="6" t="s">
         <v>541</v>
       </c>
@@ -17252,7 +17253,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" s="6" t="s">
         <v>543</v>
       </c>
@@ -17269,7 +17270,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" s="6" t="s">
         <v>545</v>
       </c>
@@ -17286,7 +17287,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" s="6" t="s">
         <v>547</v>
       </c>
@@ -17303,7 +17304,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="6" t="s">
         <v>549</v>
       </c>
@@ -17320,7 +17321,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" s="6" t="s">
         <v>551</v>
       </c>
@@ -17337,7 +17338,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" s="6" t="s">
         <v>553</v>
       </c>
@@ -17354,7 +17355,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" s="6" t="s">
         <v>555</v>
       </c>
@@ -17371,7 +17372,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" s="6" t="s">
         <v>557</v>
       </c>
@@ -17388,7 +17389,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" s="6" t="s">
         <v>559</v>
       </c>
@@ -17405,7 +17406,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" s="6" t="s">
         <v>561</v>
       </c>
@@ -17422,7 +17423,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" s="6" t="s">
         <v>563</v>
       </c>
@@ -17439,7 +17440,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" s="6" t="s">
         <v>565</v>
       </c>
@@ -17456,7 +17457,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" s="6" t="s">
         <v>567</v>
       </c>
@@ -17473,7 +17474,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" s="6" t="s">
         <v>569</v>
       </c>
@@ -17490,7 +17491,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" s="6" t="s">
         <v>571</v>
       </c>
@@ -17507,7 +17508,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" s="6" t="s">
         <v>573</v>
       </c>
@@ -17524,7 +17525,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" s="6" t="s">
         <v>575</v>
       </c>
@@ -17541,7 +17542,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" s="6" t="s">
         <v>577</v>
       </c>
@@ -17558,7 +17559,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" s="6" t="s">
         <v>579</v>
       </c>
@@ -17575,7 +17576,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" s="6" t="s">
         <v>581</v>
       </c>
@@ -17592,7 +17593,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" s="6" t="s">
         <v>583</v>
       </c>
@@ -17609,7 +17610,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" s="6" t="s">
         <v>585</v>
       </c>
@@ -17626,7 +17627,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" s="6" t="s">
         <v>587</v>
       </c>
@@ -17643,7 +17644,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="614" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>1538</v>
       </c>
@@ -17660,7 +17661,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="615" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>1539</v>
       </c>
@@ -17677,7 +17678,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>1540</v>
       </c>
@@ -17694,7 +17695,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>1541</v>
       </c>
@@ -17711,7 +17712,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="618" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>1542</v>
       </c>
@@ -17728,7 +17729,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="619" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>1543</v>
       </c>
@@ -17745,7 +17746,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="620" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>1544</v>
       </c>
@@ -17762,7 +17763,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="621" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>1545</v>
       </c>
@@ -17779,7 +17780,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="622" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>1546</v>
       </c>
@@ -17796,7 +17797,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>1547</v>
       </c>
@@ -17813,7 +17814,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>1548</v>
       </c>
@@ -17830,7 +17831,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="625" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>1549</v>
       </c>
@@ -17847,7 +17848,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>1550</v>
       </c>
@@ -17864,7 +17865,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="627" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>1551</v>
       </c>
@@ -17881,7 +17882,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>1552</v>
       </c>
@@ -17898,7 +17899,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>1553</v>
       </c>
@@ -17915,7 +17916,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>1554</v>
       </c>
@@ -17932,7 +17933,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>1555</v>
       </c>
@@ -17949,7 +17950,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="632" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>1556</v>
       </c>
@@ -17966,7 +17967,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="633" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>1557</v>
       </c>
@@ -17983,7 +17984,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>1558</v>
       </c>
@@ -18000,7 +18001,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="635" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>1559</v>
       </c>
@@ -18017,7 +18018,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>1560</v>
       </c>
@@ -18034,7 +18035,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="637" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>1561</v>
       </c>
@@ -18051,7 +18052,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="638" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>1562</v>
       </c>
@@ -18068,7 +18069,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>1563</v>
       </c>
@@ -18085,7 +18086,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>1564</v>
       </c>
@@ -18102,7 +18103,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>1565</v>
       </c>
@@ -18119,7 +18120,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="642" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>1566</v>
       </c>
@@ -18136,7 +18137,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>1567</v>
       </c>
@@ -18153,7 +18154,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>1568</v>
       </c>
@@ -18170,7 +18171,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="645" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>1569</v>
       </c>
@@ -18187,7 +18188,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="646" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>1570</v>
       </c>
@@ -18204,7 +18205,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="647" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>1571</v>
       </c>
@@ -18221,7 +18222,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="648" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>1572</v>
       </c>
@@ -18238,7 +18239,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="649" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>1573</v>
       </c>
@@ -18255,7 +18256,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="650" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>1574</v>
       </c>
@@ -18272,7 +18273,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>1575</v>
       </c>
@@ -18289,7 +18290,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>1576</v>
       </c>
@@ -18306,7 +18307,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="653" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>1577</v>
       </c>
@@ -18323,7 +18324,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>1578</v>
       </c>
@@ -18340,7 +18341,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="655" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>1579</v>
       </c>
@@ -18357,7 +18358,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>1580</v>
       </c>
@@ -18374,7 +18375,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>1581</v>
       </c>
@@ -18391,7 +18392,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>1582</v>
       </c>
@@ -18408,7 +18409,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>1583</v>
       </c>
@@ -18425,7 +18426,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="660" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>1584</v>
       </c>
@@ -18442,7 +18443,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="661" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>1585</v>
       </c>
@@ -18459,7 +18460,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>1586</v>
       </c>
@@ -18476,7 +18477,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>1587</v>
       </c>
@@ -18493,7 +18494,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>1588</v>
       </c>
@@ -18510,7 +18511,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="665" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>1589</v>
       </c>
@@ -18527,7 +18528,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="666" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>1590</v>
       </c>
@@ -18544,7 +18545,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>1591</v>
       </c>
@@ -18561,7 +18562,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>1592</v>
       </c>
@@ -18578,7 +18579,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>1593</v>
       </c>
@@ -18595,7 +18596,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="670" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>1594</v>
       </c>
@@ -18612,7 +18613,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>1595</v>
       </c>
@@ -18629,7 +18630,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>1596</v>
       </c>
@@ -18646,7 +18647,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="673" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>1597</v>
       </c>
@@ -18663,7 +18664,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="674" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>1598</v>
       </c>
@@ -18680,7 +18681,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="675" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>1599</v>
       </c>
@@ -18697,7 +18698,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="676" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>1600</v>
       </c>
@@ -18714,7 +18715,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="677" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>1601</v>
       </c>
@@ -18731,7 +18732,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="678" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>1602</v>
       </c>
@@ -18748,7 +18749,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>1603</v>
       </c>
@@ -18765,7 +18766,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>1604</v>
       </c>
@@ -18782,7 +18783,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>1605</v>
       </c>
@@ -18799,7 +18800,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>1606</v>
       </c>
@@ -18816,7 +18817,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="683" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>1607</v>
       </c>
@@ -18833,7 +18834,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>1608</v>
       </c>
@@ -18850,7 +18851,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>1609</v>
       </c>
@@ -18867,7 +18868,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>1610</v>
       </c>
@@ -18884,7 +18885,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>1611</v>
       </c>
@@ -18901,7 +18902,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="688" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>1612</v>
       </c>
@@ -18918,7 +18919,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="689" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>1613</v>
       </c>
@@ -18935,7 +18936,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>1614</v>
       </c>
@@ -18952,7 +18953,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>1615</v>
       </c>
@@ -18969,7 +18970,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>1616</v>
       </c>
@@ -18986,7 +18987,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="693" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>1617</v>
       </c>
@@ -19003,7 +19004,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="694" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>1618</v>
       </c>
@@ -19020,7 +19021,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>1619</v>
       </c>
@@ -19037,7 +19038,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>1620</v>
       </c>
@@ -19054,7 +19055,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>1621</v>
       </c>
@@ -19071,7 +19072,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>1622</v>
       </c>
@@ -19088,7 +19089,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>1623</v>
       </c>
@@ -19105,7 +19106,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>1624</v>
       </c>
@@ -19122,7 +19123,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="701" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>1625</v>
       </c>
@@ -19139,7 +19140,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="702" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>1626</v>
       </c>
@@ -19156,7 +19157,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="703" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>1627</v>
       </c>
@@ -19173,7 +19174,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>1628</v>
       </c>
@@ -19190,7 +19191,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>1629</v>
       </c>
@@ -19207,7 +19208,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>1630</v>
       </c>
@@ -19224,7 +19225,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="707" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>1631</v>
       </c>
@@ -19241,7 +19242,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="708" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>1632</v>
       </c>
@@ -19258,7 +19259,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="709" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>1633</v>
       </c>
@@ -19275,7 +19276,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="710" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>1634</v>
       </c>
@@ -19292,7 +19293,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="711" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>1635</v>
       </c>
@@ -19309,7 +19310,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="712" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>1636</v>
       </c>
@@ -19326,7 +19327,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>1637</v>
       </c>
@@ -19343,7 +19344,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="714" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>1638</v>
       </c>
@@ -19360,7 +19361,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>1639</v>
       </c>
@@ -19377,7 +19378,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="716" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>1640</v>
       </c>
@@ -19394,7 +19395,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="717" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>1641</v>
       </c>
@@ -19411,7 +19412,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="718" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>1642</v>
       </c>
@@ -19428,7 +19429,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="719" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>1643</v>
       </c>
@@ -19445,7 +19446,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="720" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>1644</v>
       </c>
@@ -19462,7 +19463,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="721" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>1645</v>
       </c>
@@ -19479,7 +19480,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="722" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>1646</v>
       </c>
@@ -19496,7 +19497,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="723" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>1647</v>
       </c>
@@ -19513,7 +19514,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="724" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>1648</v>
       </c>
@@ -19530,7 +19531,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="725" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>1649</v>
       </c>
@@ -19547,7 +19548,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="726" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>1650</v>
       </c>
@@ -19564,7 +19565,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="727" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>1651</v>
       </c>
@@ -19581,7 +19582,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="728" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>1652</v>
       </c>
@@ -19598,7 +19599,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>1653</v>
       </c>
@@ -19615,7 +19616,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="730" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>1654</v>
       </c>
@@ -19632,7 +19633,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>1655</v>
       </c>
@@ -19649,7 +19650,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="732" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>1656</v>
       </c>
@@ -19666,7 +19667,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="733" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>1657</v>
       </c>
@@ -19683,7 +19684,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>1658</v>
       </c>
@@ -19700,7 +19701,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>1659</v>
       </c>
@@ -19717,7 +19718,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>1660</v>
       </c>
@@ -19734,7 +19735,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="737" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>1661</v>
       </c>
@@ -19751,7 +19752,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="738" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>1662</v>
       </c>
@@ -19768,7 +19769,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="739" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>1663</v>
       </c>
@@ -19785,7 +19786,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="740" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>1664</v>
       </c>
@@ -19802,7 +19803,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="741" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>1665</v>
       </c>
@@ -19819,7 +19820,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="742" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>1666</v>
       </c>
@@ -19836,7 +19837,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>1667</v>
       </c>
@@ -19853,7 +19854,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="744" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>1668</v>
       </c>
@@ -19870,7 +19871,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="745" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>1669</v>
       </c>
@@ -19887,7 +19888,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="746" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>1670</v>
       </c>
@@ -19904,7 +19905,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="747" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>1671</v>
       </c>
@@ -19921,7 +19922,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="748" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>1672</v>
       </c>
@@ -19938,7 +19939,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>1673</v>
       </c>
@@ -19955,7 +19956,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="750" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>1674</v>
       </c>
@@ -19972,7 +19973,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="751" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>1675</v>
       </c>
@@ -19989,7 +19990,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="752" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>1676</v>
       </c>
@@ -20006,7 +20007,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="753" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>1677</v>
       </c>
@@ -20023,7 +20024,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="754" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>1678</v>
       </c>
@@ -20040,7 +20041,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>1679</v>
       </c>
@@ -20057,7 +20058,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="756" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>1680</v>
       </c>
@@ -20074,7 +20075,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>1681</v>
       </c>
@@ -20091,7 +20092,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>1682</v>
       </c>
@@ -20108,7 +20109,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>1683</v>
       </c>
@@ -20125,7 +20126,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>1684</v>
       </c>
@@ -20142,7 +20143,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="761" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>1685</v>
       </c>
@@ -20159,7 +20160,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="762" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>1686</v>
       </c>
@@ -20176,7 +20177,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="763" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>1687</v>
       </c>
@@ -20193,7 +20194,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="764" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>1688</v>
       </c>
@@ -20210,7 +20211,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="765" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>1689</v>
       </c>
@@ -20227,7 +20228,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="766" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>1690</v>
       </c>
@@ -20244,7 +20245,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="767" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>1691</v>
       </c>
@@ -20261,7 +20262,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="768" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>1692</v>
       </c>
@@ -20278,7 +20279,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="769" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>1693</v>
       </c>
@@ -20295,7 +20296,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="770" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>1694</v>
       </c>
@@ -20312,7 +20313,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="771" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>1695</v>
       </c>
@@ -20329,7 +20330,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="772" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>1696</v>
       </c>
@@ -20346,7 +20347,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="773" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>1697</v>
       </c>
@@ -20363,7 +20364,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="774" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>1698</v>
       </c>
@@ -20380,7 +20381,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="775" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>1699</v>
       </c>
@@ -20397,7 +20398,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>1700</v>
       </c>
@@ -20414,7 +20415,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="777" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>1701</v>
       </c>
@@ -20431,7 +20432,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="778" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>1702</v>
       </c>
@@ -20448,7 +20449,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="779" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>1703</v>
       </c>
@@ -20465,7 +20466,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="780" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>1704</v>
       </c>
@@ -20482,7 +20483,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="781" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>1705</v>
       </c>
@@ -20499,7 +20500,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="782" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>1706</v>
       </c>
@@ -20516,7 +20517,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="783" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>1707</v>
       </c>
@@ -20533,7 +20534,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="784" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>1708</v>
       </c>
@@ -20550,7 +20551,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="785" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>1709</v>
       </c>
@@ -20567,7 +20568,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="786" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786" s="16" t="s">
         <v>2056</v>
       </c>
@@ -20584,7 +20585,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="787" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787" s="16" t="s">
         <v>2057</v>
       </c>
@@ -20601,7 +20602,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>2062</v>
       </c>
@@ -20618,7 +20619,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="789" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>2065</v>
       </c>
@@ -20635,7 +20636,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="790" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A790" s="6" t="s">
         <v>375</v>
       </c>
@@ -20652,7 +20653,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="791" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791" s="6" t="s">
         <v>376</v>
       </c>
@@ -20669,7 +20670,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="792" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792" s="6" t="s">
         <v>377</v>
       </c>
@@ -20686,7 +20687,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="793" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:5" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>2068</v>
       </c>
@@ -20703,7 +20704,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="794" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>2069</v>
       </c>
@@ -20720,7 +20721,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="795" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>2070</v>
       </c>
@@ -20737,7 +20738,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="796" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>2071</v>
       </c>
@@ -20754,7 +20755,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="797" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>2072</v>
       </c>
@@ -20771,7 +20772,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="798" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>2073</v>
       </c>
@@ -20788,7 +20789,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="799" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>2074</v>
       </c>
@@ -20805,7 +20806,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="800" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:5" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>2075</v>
       </c>
@@ -20822,7 +20823,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="801" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>2076</v>
       </c>
@@ -20840,7 +20841,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E801" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:E801" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="HOUSEHOLDER_RACE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>

--- a/RECS 2020 Codebook for Public File - v7.xlsx
+++ b/RECS 2020 Codebook for Public File - v7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e3026bca469c91ae/Documents/GH_PAI789/policy-data-insight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{61A163D2-086D-4866-A586-05D0C0A1ADA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA6AD4E4-3248-4D28-911D-89A8747C7C83}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{61A163D2-086D-4866-A586-05D0C0A1ADA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AA72485-9472-4893-839A-10E2C58C9EB9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7217,8 +7217,8 @@
   <dimension ref="A1:F801"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D264" sqref="D264"/>
+      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7682,7 +7682,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
         <v>1174</v>
       </c>
@@ -20844,7 +20844,12 @@
   <autoFilter ref="A2:E801" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="HOUSEHOLDER_RACE"/>
+        <filter val="YEARMADERANGE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="YOUR HOME"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/RECS 2020 Codebook for Public File - v7.xlsx
+++ b/RECS 2020 Codebook for Public File - v7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e3026bca469c91ae/Documents/GH_PAI789/policy-data-insight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{61A163D2-086D-4866-A586-05D0C0A1ADA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AA72485-9472-4893-839A-10E2C58C9EB9}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{61A163D2-086D-4866-A586-05D0C0A1ADA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE45AFE5-AC95-41F1-84B4-FCE3FCCA0CF7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codebook" sheetId="10" r:id="rId1"/>
@@ -7217,8 +7217,8 @@
   <dimension ref="A1:F801"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D273" sqref="D273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7682,7 +7682,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
         <v>399</v>
       </c>
@@ -20844,12 +20844,7 @@
   <autoFilter ref="A2:E801" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="YEARMADERANGE"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="YOUR HOME"/>
+        <filter val="SCALEE"/>
       </filters>
     </filterColumn>
   </autoFilter>
